--- a/similarities/split_global/harmonic_similarity_timestamps_258.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_258.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/5']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+          <t>('0:00:26.200000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000')]</t>
+          <t>('0:01:24.323000', '0:01:27.713000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.420000', '0:00:07.080000')]</t>
+          <t>('0:01:08.820000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=6.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=1.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:49.860000', '0:01:58.640000')]</t>
+          <t>('0:00:11.510000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:13.320000', '0:01:26.060000')]</t>
+          <t>('0:00:54.100000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=109.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=73.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=54.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:39.180000', '0:00:53.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:18.460000', '0:00:21.820000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:01:06.920000', '0:01:10.300000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=18.46</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:00.440395', '0:00:07.142059')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.921927', '0:00:21.908049')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:46.120000', '0:00:50.740000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:01:10.519024', '0:01:19.249727')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G#/C', 'D#', 'G#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:26.940000', '0:01:37.980000'), ('0:01:35.020000', '0:01:47.700000')]</t>
+          <t>('0:00:31.138000', '0:00:34.424000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:38.860000', '0:00:42.240000'), ('0:01:02', '0:01:07.100000')]</t>
+          <t>('0:00:51.600000', '0:00:55.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=95.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=62.0']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=51.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>['C#/F', 'G#:7/D#', 'C#/F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.829118', '0:00:26.567531')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:30.971000', '0:01:36.810000')]</t>
+          <t>('0:00:43.340000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-150#t=22.829118']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['F:7', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['C:7', 'F:min', 'G:hdim7', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:00:16.260000', '0:00:26.120000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000'), ('0:00:25.800000', '0:00:31.820000'), ('0:00:09.600000', '0:00:13.300000')]</t>
+          <t>('0:01:05.820000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=16.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:53.530000', '0:01:00.920000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:23.260000', '0:00:25.870000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=53.53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:21.560000')]</t>
+          <t>('0:00:30.494172', '0:00:33.431496')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:01:02.600000', '0:01:13.240000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=30.494172</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=62.6</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
